--- a/public/Template-Jobshop_Exemple.xlsx
+++ b/public/Template-Jobshop_Exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacha\OneDrive\Bureau\Backuplundi26\interface_systeme_de_prod\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE598E1B-1DD3-44BB-8BFF-40005DE97AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6241B06-B8E7-4803-BAE7-CC9B010328E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-870" windowWidth="29040" windowHeight="15720" xr2:uid="{4A6F83E7-E10B-4859-8473-7AD93772E179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>JOB</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>2, 21</t>
-  </si>
-  <si>
-    <t>3, 9</t>
   </si>
   <si>
     <t>4, 8</t>
@@ -789,7 +786,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,11 +908,9 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -935,13 +930,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
